--- a/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>176,84%</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>169,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>43,75%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,48</t>
+          <t>-0,5; 6,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,61</t>
+          <t>-2,62; 5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,45</t>
+          <t>-3,41; 6,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 1169,67</t>
+          <t>-5,13; 8,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 509,11</t>
+          <t>-27,64; 1119,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 294,01</t>
+          <t>-50,92; 333,06</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-58,48; 270,09</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,08; 208,87</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>-49,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,33</t>
+          <t>-6,5; 1,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,13</t>
+          <t>-3,98; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 9,06</t>
+          <t>-8,16; 4,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 280,49</t>
+          <t>-8,15; 5,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 511,06</t>
+          <t>-91,18; 160,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 325,85</t>
+          <t>-70,43; 358,14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-78,35; 230,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-65,84; 149,58</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>109,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>507,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 12,17</t>
+          <t>-15,31; 13,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 7,36</t>
+          <t>-5,99; 15,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 11,89</t>
+          <t>-14,2; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,61; 31,13</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-82,97; —</t>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-82,9; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38,5%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,31</t>
+          <t>-1,94; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,97</t>
+          <t>-1,49; 4,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,88</t>
+          <t>-2,67; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 294,53</t>
+          <t>-1,82; 7,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 221,31</t>
+          <t>-42,91; 194,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 169,23</t>
+          <t>-31,36; 201,19</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-37,27; 156,96</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-20,01; 153,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>169,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>43,75%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>34,69%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,92%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.075042825457092</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4486033195806899</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.08237981080415</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.260322791168934</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.590019311601864</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.09476888679802858</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2536609154668393</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2840928026630018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 6,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 5,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 6,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 8,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-27,64; 1119,65</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-50,92; 333,06</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-58,48; 270,09</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,08; 208,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6319343376861567</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.171273000698243</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.644084974308537</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.327543410574618</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3407710417150471</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6225752424489129</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6162145960964015</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.429832498737022</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.984182525187899</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.963242405652563</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.709674258201698</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.187924121158673</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>11.1767612562942</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.58001133917503</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.466314958017665</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.882676296716339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-49,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,51%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 1,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 5,34</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 4,91</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 5,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-91,18; 160,24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-70,43; 358,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-78,35; 230,12</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-65,84; 149,58</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.998692722021419</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.784440330901726</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.119853595333777</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4499144626698218</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.5052612631770756</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5030612948246801</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.02099779148008728</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.0648926231598687</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,81</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,26%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>109,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>65,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>507,6%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.082886500320596</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.865971029362196</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.544754701020782</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.019520619502302</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9190730748175709</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6471635089690377</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7916438471377282</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6228091973877117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,31; 13,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 15,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 19,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 31,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-82,9; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.215519951094372</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.008890985328964</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.235889076594645</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.12568226246287</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.25659791235073</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.823543465122174</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.444207251952409</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.719032219403545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22,87%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>38,5%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.40965299316817</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.994804892323376</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.600387484829009</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>13.74756621453444</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2175831912546227</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.476579589940429</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.7840433014067748</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>5.304415422699149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 3,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 4,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 4,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 7,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 194,91</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-31,36; 201,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,27; 156,96</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 153,05</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.67704740802021</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.02814502054764</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.94938711700842</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.849002015546408</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8071311042080712</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.63333605262187</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.52831066210617</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.73122681758926</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.64201982643151</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.8441412759688204</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.174773245316046</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.256197475505592</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.872701419532778</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.261361905222559</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2817745537301568</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2374517207208425</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.414861775964939</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.973825232935517</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.135881510545688</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.874738285203728</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.499369637525761</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4158400563559668</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3852068443571081</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3870341418499225</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.179182756505205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.45806747794548</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.341768068212057</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.959910155485496</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.259278472431436</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.012783531469379</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.688877405005613</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.559902646526942</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.572023535328037</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
